--- a/Pandas/stocks_weather.xlsx
+++ b/Pandas/stocks_weather.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>n.a.</t>
+          <t>sam walton</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,14 +640,18 @@
           <t>GOOGL</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>27.82</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>27.82</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>87</v>
       </c>
-      <c r="E2" t="n">
-        <v>845</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -664,14 +668,18 @@
           <t>WMT</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>4.61</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>484</v>
       </c>
-      <c r="E3" t="n">
-        <v>65</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -688,18 +696,78 @@
           <t>MSFT</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>-1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>85</v>
       </c>
-      <c r="E4" t="n">
-        <v>64</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>bill gates</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RIL </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>not available</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>mukesh ambani</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ratan tata</t>
         </is>
       </c>
     </row>
